--- a/data-kualitas-air-sungai(fixing).xlsx
+++ b/data-kualitas-air-sungai(fixing).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MahasiswaUNS\Semester_5_2025\Pemodelan dan Simulasi\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642133D0-E9BA-4FC4-A814-F3C9FF3C8E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79795EA6-B769-4CE5-AE23-D25CA4FCD948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="1144">
   <si>
     <t xml:space="preserve">kemendagri_kode
 _provinsi
@@ -3447,6 +3447,21 @@
   </si>
   <si>
     <t>56.34</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>241.10</t>
+  </si>
+  <si>
+    <t>267.90</t>
+  </si>
+  <si>
+    <t>365.3</t>
+  </si>
+  <si>
+    <t>376.4</t>
   </si>
 </sst>
 </file>
@@ -4293,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O130" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AE141" sqref="AE141"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,8 +4458,8 @@
       <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="M2">
-        <v>2880</v>
+      <c r="M2" t="s">
+        <v>1139</v>
       </c>
       <c r="N2" t="s">
         <v>1126</v>
@@ -4544,8 +4559,8 @@
       <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="M3">
-        <v>24110</v>
+      <c r="M3" t="s">
+        <v>1140</v>
       </c>
       <c r="N3" t="s">
         <v>57</v>
@@ -4645,8 +4660,8 @@
       <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="M4">
-        <v>26790</v>
+      <c r="M4" t="s">
+        <v>1141</v>
       </c>
       <c r="N4" t="s">
         <v>67</v>
@@ -4746,8 +4761,8 @@
       <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="M5">
-        <v>36530</v>
+      <c r="M5" t="s">
+        <v>1142</v>
       </c>
       <c r="N5" t="s">
         <v>78</v>
@@ -4948,8 +4963,8 @@
       <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="M7">
-        <v>3764</v>
+      <c r="M7" t="s">
+        <v>1143</v>
       </c>
       <c r="N7" t="s">
         <v>98</v>

--- a/data-kualitas-air-sungai(fixing).xlsx
+++ b/data-kualitas-air-sungai(fixing).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MahasiswaUNS\Semester_5_2025\Pemodelan dan Simulasi\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79795EA6-B769-4CE5-AE23-D25CA4FCD948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B0A3BE-A3CD-4A7D-B703-A549D624E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1145">
   <si>
     <t xml:space="preserve">kemendagri_kode
 _provinsi
@@ -3462,6 +3462,9 @@
   </si>
   <si>
     <t>376.4</t>
+  </si>
+  <si>
+    <t>23.27</t>
   </si>
 </sst>
 </file>
@@ -4308,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="M161" sqref="M161"/>
+    <sheetView tabSelected="1" topLeftCell="X137" zoomScale="118" workbookViewId="0">
+      <selection activeCell="AF150" sqref="AF150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18036,7 +18039,7 @@
         <v>129.6</v>
       </c>
       <c r="AE135">
-        <v>14136</v>
+        <v>1413.6</v>
       </c>
       <c r="AG135">
         <v>3.7879999999999998</v>
@@ -18905,8 +18908,8 @@
       <c r="Q144">
         <v>18</v>
       </c>
-      <c r="R144" s="2">
-        <v>2327</v>
+      <c r="R144" s="2" t="s">
+        <v>1144</v>
       </c>
       <c r="S144" t="s">
         <v>163</v>
